--- a/1. Ventas Mensuales/1. reporte_de_ventas_NOV_1_15 - Color.xlsx
+++ b/1. Ventas Mensuales/1. reporte_de_ventas_NOV_1_15 - Color.xlsx
@@ -1,21 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\1. Ventas Mensuales\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619ADEA8-0A3A-480F-B5C5-88EBB6066C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Fecha de Pago</t>
+  </si>
+  <si>
+    <t>Prestador/Vendedor</t>
+  </si>
+  <si>
+    <t>Nombre cliente</t>
+  </si>
+  <si>
+    <t>Servicio/Producto</t>
+  </si>
+  <si>
+    <t>Precio de Lista</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Valor_producto</t>
+  </si>
+  <si>
+    <t>34752282</t>
+  </si>
+  <si>
+    <t>14/11/2024 14:31</t>
+  </si>
+  <si>
+    <t>Nataly Caro</t>
+  </si>
+  <si>
+    <t>Sandra milena Chavarro</t>
+  </si>
+  <si>
+    <t>Balayage Previa Valoracion &amp; Diagnostico desde</t>
+  </si>
+  <si>
+    <t>260000</t>
+  </si>
+  <si>
+    <t>365000</t>
+  </si>
+  <si>
+    <t>Colorimetria</t>
+  </si>
+  <si>
+    <t>34702526</t>
+  </si>
+  <si>
+    <t>13/11/2024 11:50</t>
+  </si>
+  <si>
+    <t>Olga Arango</t>
+  </si>
+  <si>
+    <t>Milagros Collante</t>
+  </si>
+  <si>
+    <t>Retoque Raiz tinte desde</t>
+  </si>
+  <si>
+    <t>132000</t>
+  </si>
+  <si>
+    <t>145000</t>
+  </si>
+  <si>
+    <t>34604124</t>
+  </si>
+  <si>
+    <t>09/11/2024 17:35</t>
+  </si>
+  <si>
+    <t>Elvis Molina</t>
+  </si>
+  <si>
+    <t>Lina Peñaranda</t>
+  </si>
+  <si>
+    <t>Baby Light cabello desde</t>
+  </si>
+  <si>
+    <t>280000</t>
+  </si>
+  <si>
+    <t>420000</t>
+  </si>
+  <si>
+    <t>34585268</t>
+  </si>
+  <si>
+    <t>09/11/2024 11:44</t>
+  </si>
+  <si>
+    <t>Claudia Niño</t>
+  </si>
+  <si>
+    <t>Base Global Tinte desde</t>
+  </si>
+  <si>
+    <t>165000</t>
+  </si>
+  <si>
+    <t>190000</t>
+  </si>
+  <si>
+    <t>34561564</t>
+  </si>
+  <si>
+    <t>08/11/2024 19:35</t>
+  </si>
+  <si>
+    <t>Cecilia Arciniegas</t>
+  </si>
+  <si>
+    <t>34456572</t>
+  </si>
+  <si>
+    <t>06/11/2024 16:13</t>
+  </si>
+  <si>
+    <t>Sandra Mogollon</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>34442964</t>
+  </si>
+  <si>
+    <t>06/11/2024 12:40</t>
+  </si>
+  <si>
+    <t>Jennifer Melo</t>
+  </si>
+  <si>
+    <t>390000</t>
+  </si>
+  <si>
+    <t>34428293</t>
+  </si>
+  <si>
+    <t>05/11/2024 20:46</t>
+  </si>
+  <si>
+    <t>Carlos Andres Montana</t>
+  </si>
+  <si>
+    <t>Queratina caballero - Desde</t>
+  </si>
+  <si>
+    <t>140000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +250,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +336,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +388,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,313 +581,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Identificador</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha de Pago</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Prestador/Vendedor</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre cliente</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Servicio/Producto</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Precio de Lista</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Valor_producto</t>
-        </is>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>34702526</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>13/11/2024 11:50</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Olga Arango</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Milagros Collante</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Retoque Raiz tinte desde</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>132000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>145000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Colorimetria</t>
-        </is>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>60480</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>34604124</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>09/11/2024 17:35</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Elvis Molina</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Lina Peñaranda</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Baby Light cabello desde</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>280000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>420000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Colorimetria</t>
-        </is>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>40040</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>34585268</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>09/11/2024 11:44</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Olga Arango</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Claudia Niño</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Base Global Tinte desde</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>165000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>190000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Colorimetria</t>
-        </is>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>35894</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>34561564</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>08/11/2024 19:35</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Nataly Caro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Cecilia Arciniegas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Base Global Tinte desde</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>165000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>165000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Colorimetria</t>
-        </is>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>36672</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>34456572</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>06/11/2024 16:13</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Olga Arango</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sandra Mogollon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Retoque Raiz tinte desde</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>132000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Colorimetria</t>
-        </is>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>30604</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>34442964</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>06/11/2024 12:40</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Olga Arango</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Jennifer Melo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Balayage Previa Valoracion &amp; Diagnostico desde</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>260000</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>390000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Colorimetria</t>
-        </is>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>48784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>40032</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I9" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I9">
+      <sortCondition ref="B1:B9"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>